--- a/出席率変化の集計/files/欠席時間集計表.xlsx
+++ b/出席率変化の集計/files/欠席時間集計表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AL1" sqref="AL1"/>
@@ -434,7 +434,7 @@
     <col min="6" max="36" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.4">
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,12 +469,30 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AL2">
+        <v>19002</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -490,16 +508,52 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AL3">
+        <v>19023</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>6</v>
+      </c>
+      <c r="AO3">
+        <v>12</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AL4">
+        <v>19059</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8</v>
       </c>
@@ -507,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>8</v>
       </c>
@@ -515,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -523,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>

--- a/出席率変化の集計/files/欠席時間集計表.xlsx
+++ b/出席率変化の集計/files/欠席時間集計表.xlsx
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AL1" sqref="AL1"/>
@@ -560,6 +560,9 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -568,6 +571,9 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -576,6 +582,9 @@
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -583,6 +592,119 @@
       </c>
       <c r="B8">
         <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/出席率変化の集計/files/欠席時間集計表.xlsx
+++ b/出席率変化の集計/files/欠席時間集計表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -39,16 +39,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席日数</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,8 +425,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <v>0</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -470,8 +463,11 @@
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2">
         <v>19002</v>
@@ -499,14 +495,14 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3">
         <v>19023</v>
@@ -533,6 +529,9 @@
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>19059</v>
